--- a/Libro.xlsx
+++ b/Libro.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">CLIENTE</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">LINEA OFERTADA 1RA/ MONTO TOTAL LINEA 2DA/ RAPIDITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maria</t>
   </si>
 </sst>
 </file>
@@ -80,6 +74,7 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -149,20 +144,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -418,7 +417,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -435,26 +434,14 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>995381831</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>5000</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>901659337</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1000</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
